--- a/doc/Design/Power_Calc.xlsx
+++ b/doc/Design/Power_Calc.xlsx
@@ -1,30 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nschneider\Desktop\ZumoComSystem\Electronic\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nschneider\Documents\NT_Projekte\ZumoComSystemHW\doc\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784DEF58-1C67-4764-8D16-1EB65B9C2CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5925"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>V</t>
   </si>
@@ -47,15 +81,9 @@
     <t>ESP32 Modul</t>
   </si>
   <si>
-    <t>MAX USB Master</t>
-  </si>
-  <si>
     <t>LEDs</t>
   </si>
   <si>
-    <t>Taster</t>
-  </si>
-  <si>
     <t>Motors</t>
   </si>
   <si>
@@ -71,9 +99,6 @@
     <t>W</t>
   </si>
   <si>
-    <t>W Power loss</t>
-  </si>
-  <si>
     <t>Power loss total</t>
   </si>
   <si>
@@ -89,48 +114,79 @@
     <t>Link:</t>
   </si>
   <si>
-    <t>https://www.digikey.de/product-detail/de/texas-instruments/TPS62056DGS/296-14212-5-ND/526047</t>
-  </si>
-  <si>
-    <t>https://www.digikey.de/product-detail/de/analog-devices-inc/LT1374CS8-5-PBF/LT1374CS8-5-PBF-ND/888771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L = </t>
-  </si>
-  <si>
-    <t>10-22 uH</t>
-  </si>
-  <si>
     <t>Max. 8.4V</t>
   </si>
   <si>
-    <t>22uH</t>
-  </si>
-  <si>
     <t>&gt;&gt;&gt;</t>
   </si>
   <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Battery Charger &amp; Protector +                        Power Management</t>
+  </si>
+  <si>
+    <t>TPS560430X3FDBVT</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>max. Power</t>
+  </si>
+  <si>
+    <t>LT1374CS8-5-PBF</t>
+  </si>
+  <si>
     <t>15uH</t>
   </si>
   <si>
-    <t>RGB-LED</t>
-  </si>
-  <si>
-    <t>Battery</t>
-  </si>
-  <si>
-    <t>Battery Charger &amp; Protector +                        Power Management</t>
+    <t xml:space="preserve">L_min = </t>
+  </si>
+  <si>
+    <t>uH</t>
+  </si>
+  <si>
+    <t>min.</t>
+  </si>
+  <si>
+    <t>max.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>∆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i_L =</t>
+    </r>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.000E+00"/>
+    <numFmt numFmtId="173" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +212,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -190,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -357,17 +432,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -388,19 +452,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -413,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -424,92 +488,97 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -537,20 +606,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>43887</xdr:rowOff>
+      <xdr:colOff>591131</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>20464</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1"/>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -563,8 +638,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18640425" y="800100"/>
-          <a:ext cx="4438650" cy="2148912"/>
+          <a:off x="14906625" y="3905250"/>
+          <a:ext cx="3572456" cy="2125489"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -575,20 +650,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>543506</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>1414</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>315007</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171869</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2"/>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -601,45 +682,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14058900" y="3886200"/>
-          <a:ext cx="3572456" cy="2125489"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>315007</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>105194</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17887950" y="3876675"/>
+          <a:off x="16840200" y="3943350"/>
           <a:ext cx="4887007" cy="3000794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -652,25 +695,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rechteck 4"/>
+        <xdr:cNvPr id="5" name="Rechteck 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17954625" y="6524626"/>
-          <a:ext cx="3962400" cy="266700"/>
+          <a:off x="18649949" y="6534151"/>
+          <a:ext cx="4086225" cy="352424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -707,6 +756,182 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>159544</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CBBABDB-793F-1EB4-9FED-6E33E2236AA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19631025" y="933450"/>
+          <a:ext cx="4124325" cy="3093244"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>726666</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Grafik 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E770484D-A092-ABCD-1057-A93B437FC600}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10077450" y="1657350"/>
+          <a:ext cx="4727166" cy="1781175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>81601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Grafik 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE10046A-78C5-6D88-E9C3-07E8ABC8585E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14878050" y="1162050"/>
+          <a:ext cx="3981449" cy="3358201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>371910</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>162112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Grafik 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE61622-3616-9881-4590-90DBA60E1932}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16668750" y="390525"/>
+          <a:ext cx="3115110" cy="1343212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -974,11 +1199,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:U39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,41 +1220,50 @@
     <col min="16" max="16" width="5.7109375" customWidth="1"/>
     <col min="17" max="17" width="4.28515625" customWidth="1"/>
     <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" style="46"/>
+    <col min="20" max="20" width="11.42578125" style="38"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="E4" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="50"/>
-      <c r="E4" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="J4" s="53" t="s">
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="54"/>
+      <c r="K4" s="50"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="32">
+        <v>18</v>
+      </c>
+      <c r="B5" s="28">
         <v>5</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="48"/>
+      <c r="E5" s="56"/>
+      <c r="G5">
+        <v>8.4</v>
+      </c>
       <c r="H5" s="4">
         <v>5</v>
       </c>
@@ -1038,18 +1272,18 @@
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="7">
+      <c r="L5" s="4">
         <v>3.3</v>
       </c>
       <c r="M5" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="10"/>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5" s="2">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="Q5" t="s">
         <v>1</v>
@@ -1057,51 +1291,55 @@
       <c r="R5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="U5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="34">
+      <c r="T5" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="58">
+        <f>(G5-L5)/(L6/1000*0.2)  *  (L5)/(G5*1100000)</f>
+        <v>3.0357142857142864E-5</v>
+      </c>
+      <c r="V5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="30">
         <f>B7/B5</f>
-        <v>4.1108152734778125</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="8">
+        <v>3.6125730994152052</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="7">
         <f>H7/H5</f>
-        <v>163.26315789473682</v>
-      </c>
-      <c r="I6" s="9" t="s">
+        <v>247.5</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="11">
-        <v>95</v>
-      </c>
-      <c r="L6" s="12">
-        <f>O5*P5+O6*P6+O23*P23+O7*P7</f>
-        <v>235</v>
-      </c>
-      <c r="M6" s="13" t="s">
+      <c r="J6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="L6" s="11" cm="1">
+        <f t="array" ref="L6">SUM(O5:O7*P5:P7)</f>
+        <v>300</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="31">
-        <v>1</v>
+      <c r="N6" s="14"/>
+      <c r="O6">
+        <v>6</v>
       </c>
       <c r="P6" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="s">
         <v>1</v>
@@ -1109,443 +1347,430 @@
       <c r="R6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="U6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="35">
-        <f>SUM(H7,H22)/(E10/100)/1000</f>
-        <v>20.554076367389062</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="29"/>
+      <c r="T6" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" s="59">
+        <v>4.6999999999999997E-5</v>
+      </c>
+      <c r="V6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="31">
+        <f>SUM(H7,H28)/(E10)/1000</f>
+        <v>18.062865497076025</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="56"/>
+      <c r="F7" s="26"/>
       <c r="H7" s="4">
-        <f>L7*100/K6</f>
-        <v>816.31578947368416</v>
+        <f>L7/K6</f>
+        <v>1237.5</v>
       </c>
       <c r="I7" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="7">
+      <c r="J7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="57">
+        <f>L7/K10</f>
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="4">
         <f>(L6*L5)</f>
-        <v>775.5</v>
+        <v>990</v>
       </c>
       <c r="M7" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="11"/>
-      <c r="O7">
-        <v>5</v>
-      </c>
-      <c r="P7" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R7" s="3" t="s">
+      <c r="N7" s="10"/>
+      <c r="P7" s="17"/>
+      <c r="R7" s="3"/>
+      <c r="T7" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="U7" s="61">
+        <f>(L5*(G5-L5))/(G5*U6*1100000)</f>
+        <v>3.8753799392097263E-2</v>
+      </c>
+      <c r="V7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="32"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="27"/>
+      <c r="H8" s="15">
+        <f>H7-L7</f>
+        <v>247.5</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="48"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="36"/>
-      <c r="C8" s="9"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="30"/>
-      <c r="H8" s="16">
-        <f>H7-L7</f>
-        <v>40.815789473684163</v>
-      </c>
-      <c r="I8" s="17" t="s">
+      <c r="F9" s="27"/>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E10" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="H10" s="1"/>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <f>3.3*600</f>
+        <v>1980</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="37">
-        <f>B7-(H7+H22)/1000</f>
-        <v>2.0554076367389058</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E10" s="24">
-        <v>90</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="H10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="P10" s="18"/>
+      <c r="P10" s="17"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E11" s="23"/>
-      <c r="F11" s="30"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
-      <c r="C13" s="39"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="30"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E15" s="23"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E16" s="23"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E17" s="26"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="23"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="27"/>
-      <c r="F19" s="11"/>
-      <c r="H19" s="1"/>
-      <c r="J19" s="53" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E11" s="22"/>
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E12" s="23"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E19" s="63"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D20" s="62"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="62"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D23" s="62"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="62"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="10"/>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="54"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="H20" s="4">
-        <v>6</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="K25" s="50"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F26" s="10"/>
+      <c r="G26">
+        <v>8.4</v>
+      </c>
+      <c r="H26" s="4">
+        <v>5</v>
+      </c>
+      <c r="I26" t="s">
         <v>0</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="7">
+      <c r="J26" s="5"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="4">
         <v>5</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="11"/>
-      <c r="H21" s="19">
-        <f>H22/H20</f>
-        <v>2947.0588235294122</v>
-      </c>
-      <c r="I21" s="9" t="s">
+    <row r="27" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="10"/>
+      <c r="H27" s="18">
+        <f>H28/H26</f>
+        <v>3184.4444444444443</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="11">
-        <v>85</v>
-      </c>
-      <c r="L21" s="20">
-        <f>(P21*O21+P22*O22+O23*P23+O24*P24)</f>
-        <v>3006</v>
-      </c>
-      <c r="M21" s="13" t="s">
+      <c r="J27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="46">
+        <v>0.9</v>
+      </c>
+      <c r="L27" s="19">
+        <f>(P27*O27+P28*O28+O29*P29+O30*P30)</f>
+        <v>2866</v>
+      </c>
+      <c r="M27" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="N21" s="15"/>
-      <c r="O21" s="31">
+      <c r="N27" s="14"/>
+      <c r="O27">
         <v>2</v>
       </c>
-      <c r="P21" s="21">
+      <c r="P27" s="20">
         <v>1333</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q27" t="s">
         <v>1</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="R27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T27" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="U27" s="59">
+        <f>(0.29*L26*(G26+2.4-L26))/(0.2*500000*(G26+2.4))</f>
+        <v>7.7870370370370371E-6</v>
+      </c>
+      <c r="V27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="36"/>
+      <c r="H28" s="4">
+        <f>L28/K27</f>
+        <v>15922.222222222223</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="57">
+        <f>L28/K31</f>
+        <v>0.63688888888888884</v>
+      </c>
+      <c r="L28" s="4">
+        <f>L27*L26</f>
+        <v>14330</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="10"/>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28" s="20">
+        <v>200</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S28" t="s">
+        <v>15</v>
+      </c>
+      <c r="T28" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="T21" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="U21">
-        <f>(0.29*L20*(H20+2.4-L20))/(0.2*500000*(H20+2.4))</f>
-        <v>5.8690476190476194E-6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="31"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="4">
-        <f>L22*100/K21</f>
-        <v>17682.352941176472</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="U28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="H29" s="15">
+        <f>H28-L28</f>
+        <v>1592.2222222222226</v>
+      </c>
+      <c r="I29" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="7">
-        <f>L21*L20</f>
-        <v>15030</v>
-      </c>
-      <c r="M22" s="3" t="s">
+      <c r="J29" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="N29" s="10"/>
+      <c r="P29" s="17"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E30" s="45"/>
+      <c r="J30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="10"/>
+      <c r="P30" s="17"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="E31" s="45"/>
+      <c r="J31" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31">
+        <f>4500*5</f>
+        <v>22500</v>
+      </c>
+      <c r="L31" t="s">
         <v>2</v>
       </c>
-      <c r="N22" s="11"/>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22" s="21">
-        <v>200</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>1</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S22" t="s">
-        <v>18</v>
-      </c>
-      <c r="T22" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="U22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F23" s="31"/>
-      <c r="H23" s="16">
-        <f>H22-L22</f>
-        <v>2652.3529411764721</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="1"/>
-      <c r="N23" s="11"/>
-      <c r="O23">
-        <v>4</v>
-      </c>
-      <c r="P23" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>1</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="31"/>
-      <c r="J24" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" s="11"/>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24" s="2">
-        <v>60</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>1</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="31"/>
-      <c r="K25" s="45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="59"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="31"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
-      <c r="B27" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="65"/>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
-      <c r="B28" s="41">
-        <f>B9+(H8+H23)/1000</f>
-        <v>4.7485763673890622</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="65"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="61"/>
-      <c r="O29" s="31"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="61"/>
-      <c r="O30" s="31"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="62"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="61"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="63"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="62"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="62"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="62"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="64"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="62"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="62"/>
+    </row>
+    <row r="32" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="17"/>
+      <c r="C32" s="3"/>
+      <c r="E32" s="45"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="54"/>
+      <c r="E33" s="45"/>
+    </row>
+    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="33">
+        <f>B7-(H7+H28)/1000</f>
+        <v>0.90314327485380375</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="45"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="39"/>
+      <c r="C35" s="3"/>
+      <c r="E35" s="41"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="3"/>
+      <c r="E36" s="41"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="42"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="41"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="43"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="42"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="42"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="42"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="44"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="42"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="J25:K25"/>
     <mergeCell ref="E4:E8"/>
   </mergeCells>
-  <conditionalFormatting sqref="K7 K22">
+  <conditionalFormatting sqref="K7 K28">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>#REF!&lt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K9" r:id="rId1"/>
-    <hyperlink ref="K25" r:id="rId2"/>
+    <hyperlink ref="K30" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K9" r:id="rId2" display="https://www.mouser.de/ProductDetail/Texas-Instruments/TPS560430X3FDBVT?qs=y6ZabgHbY%252BwVnm98XeNv8w%3D%3D" xr:uid="{5ED0E02F-494F-4076-8D39-28FCAC7F313B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
